--- a/euro_parts_database.xlsx
+++ b/euro_parts_database.xlsx
@@ -608,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V7" sqref="V7:V14"/>
@@ -4277,6 +4277,966 @@
         <v>134.26</v>
       </c>
       <c r="Z49" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C50" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J50" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K50" s="30" t="n">
+        <v>1437.07</v>
+      </c>
+      <c r="L50" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N50" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O50" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P50" s="31" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="Q50" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R50" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S50" s="30" t="n">
+        <v>184.99</v>
+      </c>
+      <c r="T50" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U50" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="V50" s="29" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="W50" s="29" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="X50" s="30" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="Y50" s="29" t="n">
+        <v>134.26</v>
+      </c>
+      <c r="Z50" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F51" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I51" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K51" s="31" t="n">
+        <v>1439.17</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N51" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O51" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="Q51" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R51" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S51" s="29" t="n">
+        <v>184.99</v>
+      </c>
+      <c r="T51" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U51" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="V51" s="29" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="W51" s="31" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X51" s="29" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="Y51" s="29" t="n">
+        <v>134.26</v>
+      </c>
+      <c r="Z51" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>1439.17</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N52" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O52" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P52" s="29" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="Q52" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R52" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S52" s="29" t="n">
+        <v>184.99</v>
+      </c>
+      <c r="T52" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U52" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="V52" s="29" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="W52" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X52" s="29" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="Y52" s="29" t="n">
+        <v>134.26</v>
+      </c>
+      <c r="Z52" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H53" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K53" s="31" t="n">
+        <v>1444.27</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N53" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O53" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P53" s="29" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="Q53" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R53" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S53" s="29" t="n">
+        <v>184.99</v>
+      </c>
+      <c r="T53" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U53" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="V53" s="29" t="n">
+        <v>698.9</v>
+      </c>
+      <c r="W53" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X53" s="31" t="n">
+        <v>96.08</v>
+      </c>
+      <c r="Y53" s="30" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z53" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H54" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I54" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J54" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K54" s="29" t="n">
+        <v>1444.27</v>
+      </c>
+      <c r="L54" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M54" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N54" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O54" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P54" s="29" t="n">
+        <v>315.72</v>
+      </c>
+      <c r="Q54" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R54" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S54" s="30" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T54" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U54" s="31" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V54" s="30" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="W54" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X54" s="29" t="n">
+        <v>96.08</v>
+      </c>
+      <c r="Y54" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z54" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D55" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H55" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K55" s="30" t="n">
+        <v>1443.43</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N55" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O55" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P55" s="30" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q55" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R55" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S55" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T55" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U55" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V55" s="29" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="W55" s="30" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="X55" s="30" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y55" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z55" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>1443.43</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N56" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O56" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P56" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q56" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R56" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S56" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T56" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U56" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V56" s="29" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="W56" s="29" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="X56" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y56" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z56" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K57" s="30" t="n">
+        <v>1439.23</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N57" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O57" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P57" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q57" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R57" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S57" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T57" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U57" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V57" s="29" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="W57" s="29" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="X57" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y57" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z57" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F58" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H58" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K58" s="29" t="n">
+        <v>1439.23</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N58" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O58" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P58" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q58" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R58" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S58" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T58" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U58" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V58" s="29" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="W58" s="31" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X58" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y58" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z58" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H59" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K59" s="30" t="n">
+        <v>1438.23</v>
+      </c>
+      <c r="L59" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M59" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N59" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O59" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P59" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q59" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R59" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S59" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T59" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U59" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V59" s="31" t="n">
+        <v>701.5599999999999</v>
+      </c>
+      <c r="W59" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X59" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y59" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z59" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K60" s="31" t="n">
+        <v>1443.03</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N60" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O60" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P60" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q60" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R60" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S60" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T60" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U60" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V60" s="29" t="n">
+        <v>701.5599999999999</v>
+      </c>
+      <c r="W60" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X60" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y60" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z60" s="29" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>364.99</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>428.99</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>485.28</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>1443.03</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>164.94</v>
+      </c>
+      <c r="M61" s="29" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N61" s="29" t="n">
+        <v>355.99</v>
+      </c>
+      <c r="O61" s="29" t="n">
+        <v>231.98</v>
+      </c>
+      <c r="P61" s="29" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="Q61" s="29" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="R61" s="29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="S61" s="29" t="n">
+        <v>183.99</v>
+      </c>
+      <c r="T61" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U61" s="29" t="n">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="V61" s="29" t="n">
+        <v>701.5599999999999</v>
+      </c>
+      <c r="W61" s="29" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="X61" s="29" t="n">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Y61" s="29" t="n">
+        <v>133.96</v>
+      </c>
+      <c r="Z61" s="29" t="n">
         <v>20.09</v>
       </c>
     </row>
@@ -4322,7 +5282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV49"/>
+  <dimension ref="A1:AV61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11006,6 +11966,1758 @@
       </c>
       <c r="AV49" s="30" t="n">
         <v>1585.13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="29" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="C50" s="30" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="J50" s="31" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="K50" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L50" s="29" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N50" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O50" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P50" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q50" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R50" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S50" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T50" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U50" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V50" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W50" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X50" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y50" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z50" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA50" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB50" s="31" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC50" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD50" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE50" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF50" s="29" t="n">
+        <v>60.36</v>
+      </c>
+      <c r="AG50" s="29" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="AH50" s="30" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI50" s="29" t="n">
+        <v>1277.82</v>
+      </c>
+      <c r="AJ50" s="30" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK50" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL50" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM50" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN50" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO50" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP50" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ50" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR50" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS50" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT50" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="AU50" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV50" s="30" t="n">
+        <v>1580.03</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F51" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I51" s="31" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="K51" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N51" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O51" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q51" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R51" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S51" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T51" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U51" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V51" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W51" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X51" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y51" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z51" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA51" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB51" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC51" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD51" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE51" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF51" s="31" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG51" s="29" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="AH51" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI51" s="29" t="n">
+        <v>1277.82</v>
+      </c>
+      <c r="AJ51" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK51" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL51" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM51" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN51" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO51" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP51" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ51" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR51" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS51" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT51" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="AU51" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV51" s="29" t="n">
+        <v>1580.03</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N52" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O52" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P52" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q52" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R52" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S52" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T52" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U52" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V52" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W52" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X52" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y52" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z52" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA52" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB52" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC52" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD52" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE52" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF52" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG52" s="29" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="AH52" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI52" s="29" t="n">
+        <v>1277.82</v>
+      </c>
+      <c r="AJ52" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK52" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL52" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM52" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN52" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO52" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP52" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ52" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR52" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS52" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT52" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="AU52" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV52" s="29" t="n">
+        <v>1580.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H53" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="K53" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N53" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O53" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P53" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q53" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R53" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S53" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T53" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U53" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V53" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W53" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X53" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y53" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z53" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA53" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB53" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC53" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD53" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE53" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF53" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG53" s="29" t="n">
+        <v>81.56</v>
+      </c>
+      <c r="AH53" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI53" s="29" t="n">
+        <v>1277.82</v>
+      </c>
+      <c r="AJ53" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK53" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL53" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM53" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN53" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO53" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP53" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ53" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR53" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS53" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT53" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="AU53" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV53" s="29" t="n">
+        <v>1580.03</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="30" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H54" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I54" s="31" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="J54" s="31" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K54" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L54" s="31" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M54" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N54" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O54" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P54" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q54" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R54" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S54" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T54" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U54" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V54" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W54" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X54" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y54" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z54" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA54" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB54" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC54" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD54" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE54" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF54" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG54" s="30" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH54" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI54" s="30" t="n">
+        <v>1254.82</v>
+      </c>
+      <c r="AJ54" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK54" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL54" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM54" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN54" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO54" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP54" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ54" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR54" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS54" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT54" s="31" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU54" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV54" s="29" t="n">
+        <v>1580.03</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="30" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D55" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H55" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K55" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N55" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O55" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P55" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q55" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R55" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S55" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T55" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U55" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V55" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W55" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X55" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y55" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z55" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA55" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB55" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC55" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD55" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE55" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF55" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG55" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH55" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI55" s="30" t="n">
+        <v>1254.32</v>
+      </c>
+      <c r="AJ55" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK55" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL55" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM55" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN55" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO55" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP55" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ55" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR55" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS55" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT55" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU55" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV55" s="30" t="n">
+        <v>1579.63</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N56" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O56" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P56" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q56" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R56" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S56" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T56" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U56" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V56" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W56" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X56" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y56" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z56" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA56" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB56" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC56" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD56" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE56" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF56" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG56" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH56" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI56" s="29" t="n">
+        <v>1254.32</v>
+      </c>
+      <c r="AJ56" s="30" t="n">
+        <v>247.59</v>
+      </c>
+      <c r="AK56" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL56" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM56" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN56" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO56" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP56" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ56" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR56" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS56" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT56" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU56" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV56" s="29" t="n">
+        <v>1579.63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>108.45</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K57" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N57" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O57" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P57" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q57" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R57" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S57" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T57" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U57" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V57" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W57" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X57" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y57" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z57" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA57" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB57" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC57" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD57" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE57" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF57" s="29" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AG57" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH57" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI57" s="29" t="n">
+        <v>1254.32</v>
+      </c>
+      <c r="AJ57" s="29" t="n">
+        <v>247.59</v>
+      </c>
+      <c r="AK57" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL57" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM57" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN57" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO57" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP57" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ57" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR57" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS57" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT57" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU57" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV57" s="29" t="n">
+        <v>1579.63</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F58" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H58" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I58" s="31" t="n">
+        <v>108.65</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K58" s="31" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N58" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O58" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P58" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q58" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R58" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S58" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T58" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U58" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V58" s="29" t="n">
+        <v>464.99</v>
+      </c>
+      <c r="W58" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X58" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y58" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z58" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA58" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB58" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC58" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD58" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE58" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF58" s="31" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="AG58" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH58" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI58" s="29" t="n">
+        <v>1254.32</v>
+      </c>
+      <c r="AJ58" s="29" t="n">
+        <v>247.59</v>
+      </c>
+      <c r="AK58" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL58" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM58" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN58" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO58" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP58" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ58" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR58" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS58" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT58" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU58" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV58" s="29" t="n">
+        <v>1579.63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H59" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>108.65</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K59" s="29" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="L59" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M59" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N59" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O59" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P59" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q59" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R59" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S59" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T59" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U59" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V59" s="30" t="n">
+        <v>463.99</v>
+      </c>
+      <c r="W59" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X59" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y59" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z59" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA59" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB59" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC59" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD59" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE59" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF59" s="29" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="AG59" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH59" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI59" s="30" t="n">
+        <v>1252.97</v>
+      </c>
+      <c r="AJ59" s="29" t="n">
+        <v>247.59</v>
+      </c>
+      <c r="AK59" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL59" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM59" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN59" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO59" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP59" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ59" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR59" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS59" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT59" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU59" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV59" s="29" t="n">
+        <v>1579.63</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>108.65</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K60" s="30" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N60" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O60" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P60" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q60" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R60" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S60" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T60" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U60" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V60" s="31" t="n">
+        <v>493.35</v>
+      </c>
+      <c r="W60" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X60" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y60" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z60" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA60" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB60" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC60" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD60" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE60" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF60" s="29" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="AG60" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH60" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI60" s="31" t="n">
+        <v>1262.97</v>
+      </c>
+      <c r="AJ60" s="31" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK60" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL60" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM60" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN60" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO60" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP60" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ60" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR60" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS60" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT60" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU60" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV60" s="31" t="n">
+        <v>1579.83</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>835.48</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>431.53</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>451.16</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>321.36</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>162.32</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>108.65</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>319.12</v>
+      </c>
+      <c r="M61" s="29" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="N61" s="29" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="O61" s="29" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="P61" s="29" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="Q61" s="29" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="R61" s="29" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="S61" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="T61" s="29" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="U61" s="29" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="V61" s="29" t="n">
+        <v>493.35</v>
+      </c>
+      <c r="W61" s="29" t="n">
+        <v>372.99</v>
+      </c>
+      <c r="X61" s="29" t="n">
+        <v>639.99</v>
+      </c>
+      <c r="Y61" s="29" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="Z61" s="29" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AA61" s="29" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="AB61" s="29" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="AC61" s="29" t="n">
+        <v>286.99</v>
+      </c>
+      <c r="AD61" s="29" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="AE61" s="29" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AF61" s="29" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="AG61" s="29" t="n">
+        <v>80.16</v>
+      </c>
+      <c r="AH61" s="29" t="n">
+        <v>130.42</v>
+      </c>
+      <c r="AI61" s="29" t="n">
+        <v>1262.97</v>
+      </c>
+      <c r="AJ61" s="29" t="n">
+        <v>247.79</v>
+      </c>
+      <c r="AK61" s="29" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="AL61" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AM61" s="29" t="n">
+        <v>791.99</v>
+      </c>
+      <c r="AN61" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AO61" s="29" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AP61" s="29" t="n">
+        <v>2144.99</v>
+      </c>
+      <c r="AQ61" s="29" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="AR61" s="29" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AS61" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="AT61" s="29" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="AU61" s="29" t="n">
+        <v>677.96</v>
+      </c>
+      <c r="AV61" s="29" t="n">
+        <v>1579.83</v>
       </c>
     </row>
   </sheetData>
@@ -11071,7 +13783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -13859,6 +16571,714 @@
         <v>169.99</v>
       </c>
       <c r="S49" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C50" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>345.44</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J50" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K50" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L50" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N50" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O50" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P50" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q50" s="29" t="n">
+        <v>134.99</v>
+      </c>
+      <c r="R50" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S50" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F51" s="31" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I51" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K51" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N51" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O51" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q51" s="29" t="n">
+        <v>134.99</v>
+      </c>
+      <c r="R51" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S51" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N52" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O52" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P52" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q52" s="29" t="n">
+        <v>134.99</v>
+      </c>
+      <c r="R52" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S52" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H53" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K53" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N53" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O53" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P53" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q53" s="29" t="n">
+        <v>134.99</v>
+      </c>
+      <c r="R53" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S53" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H54" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I54" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J54" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K54" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L54" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M54" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N54" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O54" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P54" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q54" s="30" t="n">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="R54" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S54" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D55" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H55" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K55" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N55" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O55" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P55" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q55" s="29" t="n">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="R55" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S55" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N56" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O56" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P56" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q56" s="29" t="n">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="R56" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S56" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K57" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N57" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O57" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P57" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q57" s="29" t="n">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="R57" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S57" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F58" s="31" t="n">
+        <v>346.04</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H58" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K58" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N58" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O58" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P58" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q58" s="31" t="n">
+        <v>113.99</v>
+      </c>
+      <c r="R58" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S58" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>346.04</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H59" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K59" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L59" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M59" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N59" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O59" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P59" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q59" s="29" t="n">
+        <v>113.99</v>
+      </c>
+      <c r="R59" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S59" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>346.04</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K60" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N60" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O60" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P60" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q60" s="29" t="n">
+        <v>113.99</v>
+      </c>
+      <c r="R60" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S60" s="29" t="n">
+        <v>86.73999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>513.99</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>454.99</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>346.04</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="M61" s="29" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N61" s="29" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="O61" s="29" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="P61" s="29" t="n">
+        <v>176.99</v>
+      </c>
+      <c r="Q61" s="29" t="n">
+        <v>113.99</v>
+      </c>
+      <c r="R61" s="29" t="n">
+        <v>169.99</v>
+      </c>
+      <c r="S61" s="29" t="n">
         <v>86.73999999999999</v>
       </c>
     </row>
@@ -13896,7 +17316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BS61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -23718,6 +27138,2514 @@
         <v>136.99</v>
       </c>
       <c r="BQ49" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="31" t="n">
+        <v>1691.31</v>
+      </c>
+      <c r="C50" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>639.52</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="J50" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K50" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L50" s="31" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N50" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O50" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P50" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q50" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R50" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S50" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T50" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U50" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V50" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W50" s="30" t="n">
+        <v>359.1</v>
+      </c>
+      <c r="X50" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y50" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z50" s="30" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA50" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB50" s="30" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC50" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD50" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE50" s="30" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF50" s="30" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG50" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH50" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI50" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ50" s="30" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK50" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL50" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM50" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN50" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO50" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP50" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ50" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR50" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS50" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT50" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU50" s="30" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV50" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW50" s="30" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="AX50" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY50" s="31" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="AZ50" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA50" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB50" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC50" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD50" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE50" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF50" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG50" s="30" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="BH50" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI50" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ50" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK50" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL50" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM50" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN50" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO50" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP50" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ50" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>1691.31</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>639.52</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F51" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I51" s="29" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K51" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N51" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O51" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q51" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R51" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S51" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T51" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U51" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V51" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W51" s="30" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="X51" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y51" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z51" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA51" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB51" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC51" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD51" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE51" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF51" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG51" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH51" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI51" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ51" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK51" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL51" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM51" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN51" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO51" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP51" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ51" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR51" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS51" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT51" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU51" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV51" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW51" s="29" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="AX51" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY51" s="29" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="AZ51" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA51" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB51" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC51" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD51" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE51" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF51" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG51" s="29" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="BH51" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI51" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ51" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK51" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL51" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM51" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN51" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO51" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP51" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ51" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>1691.31</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>639.52</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N52" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O52" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P52" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q52" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R52" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S52" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T52" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U52" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V52" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W52" s="29" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="X52" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y52" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z52" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA52" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB52" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC52" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD52" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE52" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF52" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG52" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH52" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI52" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ52" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK52" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL52" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM52" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN52" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO52" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP52" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ52" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR52" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS52" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT52" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU52" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV52" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW52" s="29" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="AX52" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY52" s="29" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="AZ52" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA52" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB52" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC52" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD52" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE52" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF52" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG52" s="29" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="BH52" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI52" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ52" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK52" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL52" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM52" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN52" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO52" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP52" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ52" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>1691.31</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>639.52</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="H53" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K53" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N53" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O53" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P53" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q53" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R53" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S53" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T53" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U53" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V53" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W53" s="31" t="n">
+        <v>359.1</v>
+      </c>
+      <c r="X53" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y53" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z53" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA53" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB53" s="31" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC53" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD53" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE53" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF53" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG53" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH53" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI53" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ53" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK53" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL53" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM53" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN53" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO53" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP53" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ53" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR53" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS53" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT53" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU53" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV53" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW53" s="29" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="AX53" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY53" s="29" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="AZ53" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA53" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB53" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC53" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD53" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE53" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF53" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG53" s="29" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="BH53" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI53" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ53" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK53" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL53" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM53" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN53" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO53" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP53" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ53" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="31" t="n">
+        <v>1692.91</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>639.52</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G54" s="31" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H54" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I54" s="29" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="J54" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K54" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L54" s="31" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M54" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N54" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O54" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P54" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q54" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R54" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S54" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T54" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U54" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V54" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W54" s="31" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="X54" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y54" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z54" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA54" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB54" s="29" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC54" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD54" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE54" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF54" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG54" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH54" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI54" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ54" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK54" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL54" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM54" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN54" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO54" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP54" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ54" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR54" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS54" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT54" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU54" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV54" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW54" s="30" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX54" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY54" s="31" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ54" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA54" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB54" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC54" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD54" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE54" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF54" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG54" s="30" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH54" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI54" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ54" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK54" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL54" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM54" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN54" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO54" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP54" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ54" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>1692.91</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D55" s="30" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H55" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I55" s="30" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K55" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N55" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O55" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P55" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q55" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R55" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S55" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T55" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U55" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V55" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W55" s="30" t="n">
+        <v>358.9</v>
+      </c>
+      <c r="X55" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y55" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z55" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA55" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB55" s="30" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC55" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD55" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE55" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF55" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG55" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH55" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI55" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ55" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK55" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL55" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM55" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN55" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO55" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP55" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ55" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR55" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS55" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT55" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU55" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV55" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW55" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX55" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY55" s="29" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ55" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA55" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB55" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC55" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD55" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE55" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF55" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG55" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH55" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI55" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ55" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK55" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL55" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM55" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN55" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO55" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP55" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ55" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>1692.91</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N56" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O56" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P56" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q56" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R56" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S56" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T56" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U56" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V56" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W56" s="29" t="n">
+        <v>358.9</v>
+      </c>
+      <c r="X56" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y56" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z56" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA56" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB56" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC56" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD56" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE56" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF56" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG56" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH56" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI56" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ56" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK56" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL56" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM56" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN56" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO56" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP56" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ56" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR56" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS56" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT56" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU56" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV56" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW56" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX56" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY56" s="29" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ56" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA56" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB56" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC56" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD56" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE56" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF56" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG56" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH56" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI56" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ56" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK56" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL56" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM56" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN56" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO56" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP56" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ56" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>1692.91</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K57" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N57" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O57" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P57" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q57" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R57" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S57" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T57" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U57" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V57" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W57" s="29" t="n">
+        <v>358.9</v>
+      </c>
+      <c r="X57" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y57" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z57" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA57" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB57" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC57" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD57" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE57" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF57" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG57" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH57" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI57" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ57" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK57" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL57" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM57" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN57" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO57" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP57" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ57" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR57" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS57" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT57" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU57" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV57" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW57" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX57" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY57" s="29" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ57" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA57" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB57" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC57" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD57" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE57" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF57" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG57" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH57" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI57" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ57" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK57" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL57" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM57" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN57" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO57" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP57" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ57" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>1692.91</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F58" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H58" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K58" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="N58" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O58" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P58" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q58" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R58" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S58" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T58" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U58" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V58" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W58" s="30" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="X58" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y58" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z58" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA58" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB58" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC58" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD58" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE58" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF58" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG58" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH58" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI58" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ58" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK58" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL58" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM58" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN58" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO58" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP58" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ58" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR58" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS58" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT58" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU58" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV58" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW58" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX58" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY58" s="29" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ58" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA58" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB58" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC58" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD58" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE58" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF58" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG58" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH58" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI58" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ58" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK58" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL58" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM58" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN58" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO58" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP58" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ58" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="31" t="n">
+        <v>1694.79</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H59" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K59" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L59" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M59" s="30" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="N59" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O59" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P59" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q59" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R59" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S59" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T59" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U59" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V59" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W59" s="30" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="X59" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y59" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z59" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA59" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB59" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC59" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD59" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE59" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF59" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG59" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH59" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI59" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ59" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK59" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL59" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM59" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN59" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO59" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP59" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ59" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR59" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS59" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT59" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU59" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV59" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW59" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX59" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY59" s="29" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="AZ59" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA59" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB59" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC59" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD59" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE59" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF59" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG59" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH59" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI59" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ59" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK59" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL59" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM59" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN59" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO59" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP59" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ59" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>1694.79</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K60" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="N60" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O60" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P60" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q60" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R60" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S60" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T60" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U60" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V60" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W60" s="31" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="X60" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y60" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z60" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA60" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB60" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC60" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD60" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE60" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF60" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG60" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH60" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI60" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ60" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK60" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL60" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM60" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN60" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO60" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP60" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ60" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR60" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS60" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT60" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU60" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV60" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW60" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX60" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY60" s="31" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="AZ60" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA60" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB60" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC60" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD60" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE60" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF60" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG60" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH60" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI60" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ60" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK60" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL60" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM60" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN60" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO60" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP60" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ60" s="29" t="n">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>1694.79</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>1205.12</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>634.9</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>186.34</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>1479.1</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>63.68</v>
+      </c>
+      <c r="M61" s="29" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="N61" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="O61" s="29" t="n">
+        <v>442.99</v>
+      </c>
+      <c r="P61" s="29" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="Q61" s="29" t="n">
+        <v>523.99</v>
+      </c>
+      <c r="R61" s="29" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="S61" s="29" t="n">
+        <v>2465</v>
+      </c>
+      <c r="T61" s="29" t="n">
+        <v>965</v>
+      </c>
+      <c r="U61" s="29" t="n">
+        <v>935</v>
+      </c>
+      <c r="V61" s="29" t="n">
+        <v>464.54</v>
+      </c>
+      <c r="W61" s="29" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="X61" s="29" t="n">
+        <v>212.99</v>
+      </c>
+      <c r="Y61" s="29" t="n">
+        <v>125.04</v>
+      </c>
+      <c r="Z61" s="29" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AA61" s="29" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="AB61" s="29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC61" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AD61" s="29" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AE61" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AF61" s="29" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AG61" s="29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH61" s="29" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AI61" s="29" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AJ61" s="29" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AK61" s="29" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="AL61" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM61" s="29" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AN61" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AO61" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AP61" s="29" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AQ61" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR61" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS61" s="29" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="AT61" s="29" t="n">
+        <v>1349.83</v>
+      </c>
+      <c r="AU61" s="29" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="AV61" s="29" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AW61" s="29" t="n">
+        <v>393</v>
+      </c>
+      <c r="AX61" s="29" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="AY61" s="29" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="AZ61" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BA61" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BB61" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BC61" s="29" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="BD61" s="29" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="BE61" s="29" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="BF61" s="29" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="BG61" s="29" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="BH61" s="29" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="BI61" s="29" t="n">
+        <v>172.99</v>
+      </c>
+      <c r="BJ61" s="29" t="n">
+        <v>149.99</v>
+      </c>
+      <c r="BK61" s="29" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="BL61" s="29" t="n">
+        <v>448.99</v>
+      </c>
+      <c r="BM61" s="29" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="BN61" s="29" t="n">
+        <v>260.99</v>
+      </c>
+      <c r="BO61" s="29" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="BP61" s="29" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="BQ61" s="29" t="n">
         <v>132.99</v>
       </c>
     </row>
@@ -23807,7 +29735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -24204,6 +30132,102 @@
         <v>45816</v>
       </c>
       <c r="B49" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
         <v>51.99</v>
       </c>
     </row>
@@ -24224,7 +30248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -26153,6 +32177,498 @@
         <v>9.19</v>
       </c>
       <c r="M49" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C50" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="J50" s="30" t="n">
+        <v>3825.17</v>
+      </c>
+      <c r="K50" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L50" s="30" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F51" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I51" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>3825.17</v>
+      </c>
+      <c r="K51" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>3825.17</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H53" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>3825.17</v>
+      </c>
+      <c r="K53" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H54" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I54" s="30" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J54" s="30" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K54" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L54" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M54" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D55" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H55" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K55" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K57" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>207.99</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F58" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H58" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K58" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C59" s="30" t="n">
+        <v>206.99</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H59" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K59" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L59" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M59" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>206.99</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K60" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>403.93</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>1575.92</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>206.99</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>3823.97</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>162.63</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="M61" s="29" t="n">
         <v>403.93</v>
       </c>
     </row>
@@ -26184,7 +32700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31518,6 +38034,1434 @@
         <v>183.99</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B50" s="30" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C50" s="30" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E50" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F50" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G50" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H50" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="I50" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J50" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K50" s="29" t="n">
+        <v>314.97</v>
+      </c>
+      <c r="L50" s="29" t="n">
+        <v>256.24</v>
+      </c>
+      <c r="M50" s="29" t="n">
+        <v>120.04</v>
+      </c>
+      <c r="N50" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O50" s="30" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P50" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q50" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R50" s="29" t="n">
+        <v>634.16</v>
+      </c>
+      <c r="S50" s="29" t="n">
+        <v>459.16</v>
+      </c>
+      <c r="T50" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U50" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V50" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W50" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X50" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="Y50" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z50" s="29" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA50" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB50" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC50" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD50" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE50" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF50" s="30" t="n">
+        <v>102.96</v>
+      </c>
+      <c r="AG50" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH50" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI50" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="AJ50" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK50" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL50" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM50" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B51" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D51" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E51" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F51" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G51" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H51" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="I51" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J51" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K51" s="29" t="n">
+        <v>314.97</v>
+      </c>
+      <c r="L51" s="29" t="n">
+        <v>256.24</v>
+      </c>
+      <c r="M51" s="29" t="n">
+        <v>120.04</v>
+      </c>
+      <c r="N51" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O51" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q51" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R51" s="29" t="n">
+        <v>634.16</v>
+      </c>
+      <c r="S51" s="29" t="n">
+        <v>459.16</v>
+      </c>
+      <c r="T51" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U51" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V51" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W51" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X51" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="Y51" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z51" s="29" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA51" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB51" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC51" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD51" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE51" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF51" s="29" t="n">
+        <v>102.96</v>
+      </c>
+      <c r="AG51" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH51" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI51" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="AJ51" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK51" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL51" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM51" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B52" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D52" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E52" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F52" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G52" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H52" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="I52" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J52" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K52" s="29" t="n">
+        <v>314.97</v>
+      </c>
+      <c r="L52" s="29" t="n">
+        <v>256.24</v>
+      </c>
+      <c r="M52" s="29" t="n">
+        <v>120.04</v>
+      </c>
+      <c r="N52" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O52" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P52" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q52" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R52" s="29" t="n">
+        <v>634.16</v>
+      </c>
+      <c r="S52" s="29" t="n">
+        <v>459.16</v>
+      </c>
+      <c r="T52" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U52" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V52" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W52" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X52" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="Y52" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z52" s="29" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA52" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB52" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC52" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD52" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE52" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF52" s="29" t="n">
+        <v>102.96</v>
+      </c>
+      <c r="AG52" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH52" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI52" s="29" t="n">
+        <v>694.52</v>
+      </c>
+      <c r="AJ52" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK52" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL52" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM52" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B53" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C53" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E53" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F53" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G53" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H53" s="30" t="n">
+        <v>694.3200000000001</v>
+      </c>
+      <c r="I53" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J53" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K53" s="29" t="n">
+        <v>314.97</v>
+      </c>
+      <c r="L53" s="29" t="n">
+        <v>256.24</v>
+      </c>
+      <c r="M53" s="29" t="n">
+        <v>120.04</v>
+      </c>
+      <c r="N53" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O53" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P53" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q53" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R53" s="29" t="n">
+        <v>634.16</v>
+      </c>
+      <c r="S53" s="29" t="n">
+        <v>459.16</v>
+      </c>
+      <c r="T53" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U53" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V53" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W53" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X53" s="29" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="Y53" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z53" s="29" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA53" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB53" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC53" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD53" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE53" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF53" s="31" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG53" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH53" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI53" s="30" t="n">
+        <v>694.3200000000001</v>
+      </c>
+      <c r="AJ53" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK53" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL53" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM53" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B54" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C54" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D54" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E54" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F54" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G54" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H54" s="30" t="n">
+        <v>682.3200000000001</v>
+      </c>
+      <c r="I54" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J54" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K54" s="31" t="n">
+        <v>316.97</v>
+      </c>
+      <c r="L54" s="30" t="n">
+        <v>255.24</v>
+      </c>
+      <c r="M54" s="31" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N54" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O54" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P54" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q54" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R54" s="29" t="n">
+        <v>634.16</v>
+      </c>
+      <c r="S54" s="29" t="n">
+        <v>459.16</v>
+      </c>
+      <c r="T54" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U54" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V54" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W54" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X54" s="30" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y54" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z54" s="29" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AA54" s="29" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB54" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC54" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD54" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE54" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF54" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG54" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH54" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI54" s="30" t="n">
+        <v>682.3200000000001</v>
+      </c>
+      <c r="AJ54" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK54" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL54" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM54" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B55" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C55" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D55" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E55" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F55" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G55" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H55" s="30" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="I55" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J55" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K55" s="29" t="n">
+        <v>316.97</v>
+      </c>
+      <c r="L55" s="29" t="n">
+        <v>255.24</v>
+      </c>
+      <c r="M55" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N55" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O55" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P55" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q55" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R55" s="30" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S55" s="30" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T55" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U55" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V55" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W55" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X55" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y55" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z55" s="30" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA55" s="30" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB55" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC55" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD55" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE55" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF55" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG55" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH55" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI55" s="30" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="AJ55" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK55" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL55" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM55" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B56" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C56" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D56" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E56" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F56" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G56" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H56" s="29" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="I56" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J56" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K56" s="29" t="n">
+        <v>316.97</v>
+      </c>
+      <c r="L56" s="29" t="n">
+        <v>255.24</v>
+      </c>
+      <c r="M56" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N56" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O56" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P56" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q56" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R56" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S56" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T56" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U56" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V56" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W56" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X56" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y56" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z56" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA56" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB56" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC56" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD56" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE56" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF56" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG56" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH56" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI56" s="29" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="AJ56" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK56" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL56" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM56" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B57" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C57" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D57" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E57" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F57" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G57" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H57" s="29" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="I57" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J57" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K57" s="29" t="n">
+        <v>316.97</v>
+      </c>
+      <c r="L57" s="29" t="n">
+        <v>255.24</v>
+      </c>
+      <c r="M57" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N57" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O57" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P57" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q57" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R57" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S57" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T57" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U57" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V57" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W57" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X57" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y57" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z57" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA57" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB57" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC57" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD57" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE57" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF57" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG57" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH57" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI57" s="29" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="AJ57" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK57" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL57" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM57" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B58" s="29" t="n">
+        <v>2072.17</v>
+      </c>
+      <c r="C58" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D58" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E58" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F58" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G58" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H58" s="30" t="n">
+        <v>673.8099999999999</v>
+      </c>
+      <c r="I58" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J58" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K58" s="29" t="n">
+        <v>316.97</v>
+      </c>
+      <c r="L58" s="29" t="n">
+        <v>255.24</v>
+      </c>
+      <c r="M58" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N58" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O58" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P58" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q58" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R58" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S58" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T58" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U58" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V58" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W58" s="29" t="n">
+        <v>170.78</v>
+      </c>
+      <c r="X58" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y58" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z58" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA58" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB58" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC58" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD58" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE58" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF58" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG58" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH58" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI58" s="30" t="n">
+        <v>673.8099999999999</v>
+      </c>
+      <c r="AJ58" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK58" s="29" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="AL58" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM58" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B59" s="30" t="n">
+        <v>2058.17</v>
+      </c>
+      <c r="C59" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D59" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E59" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F59" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G59" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H59" s="31" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="I59" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J59" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K59" s="30" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="L59" s="30" t="n">
+        <v>252.24</v>
+      </c>
+      <c r="M59" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N59" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O59" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P59" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q59" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R59" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S59" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T59" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U59" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V59" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W59" s="30" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="X59" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y59" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z59" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA59" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB59" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC59" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD59" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE59" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF59" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG59" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH59" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI59" s="31" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="AJ59" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK59" s="30" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="AL59" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM59" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>2058.17</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E60" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F60" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G60" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H60" s="29" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="I60" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J60" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K60" s="29" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="L60" s="29" t="n">
+        <v>252.24</v>
+      </c>
+      <c r="M60" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N60" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O60" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P60" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q60" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R60" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S60" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T60" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U60" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V60" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W60" s="29" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="X60" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y60" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z60" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA60" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB60" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC60" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD60" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE60" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF60" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG60" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH60" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI60" s="29" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="AJ60" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK60" s="29" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="AL60" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM60" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B61" s="29" t="n">
+        <v>2058.17</v>
+      </c>
+      <c r="C61" s="29" t="n">
+        <v>956.9400000000001</v>
+      </c>
+      <c r="D61" s="29" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E61" s="29" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="F61" s="29" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="G61" s="29" t="n">
+        <v>710.08</v>
+      </c>
+      <c r="H61" s="29" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="I61" s="29" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="J61" s="29" t="n">
+        <v>418.27</v>
+      </c>
+      <c r="K61" s="29" t="n">
+        <v>314.35</v>
+      </c>
+      <c r="L61" s="29" t="n">
+        <v>252.24</v>
+      </c>
+      <c r="M61" s="29" t="n">
+        <v>124.84</v>
+      </c>
+      <c r="N61" s="29" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="O61" s="29" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="P61" s="29" t="n">
+        <v>520.99</v>
+      </c>
+      <c r="Q61" s="29" t="n">
+        <v>735.98</v>
+      </c>
+      <c r="R61" s="29" t="n">
+        <v>634.0599999999999</v>
+      </c>
+      <c r="S61" s="29" t="n">
+        <v>459.06</v>
+      </c>
+      <c r="T61" s="29" t="n">
+        <v>424.99</v>
+      </c>
+      <c r="U61" s="29" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="V61" s="29" t="n">
+        <v>405.99</v>
+      </c>
+      <c r="W61" s="29" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="X61" s="29" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="Y61" s="29" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="Z61" s="29" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AA61" s="29" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AB61" s="29" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="AC61" s="29" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="AD61" s="29" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="AE61" s="29" t="n">
+        <v>246.99</v>
+      </c>
+      <c r="AF61" s="29" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="AG61" s="29" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="AH61" s="29" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="AI61" s="29" t="n">
+        <v>691.8099999999999</v>
+      </c>
+      <c r="AJ61" s="29" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="AK61" s="29" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="AL61" s="29" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AM61" s="29" t="n">
+        <v>183.99</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:AM3"/>
